--- a/genshin/458975319242191519_2020-11-18_20-18-39.xlsx
+++ b/genshin/458975319242191519_2020-11-18_20-18-39.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:49:29</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.07603009259</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3737193788</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-11-23 00:42:44</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44158.02967592593</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>3721129857</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-11-21 15:52:24</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44156.66138888889</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -778,10 +788,8 @@
           <t>3722513928</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:31:01</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44155.72987268519</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -849,10 +857,8 @@
           <t>3723572426</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-11-20 10:00:46</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44155.41719907407</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -920,10 +926,8 @@
           <t>3721317311</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-20 05:33:42</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44155.23173611111</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -999,10 +1003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-20 03:46:27</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44155.15725694445</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1066,10 +1068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-20 01:33:34</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44155.06497685185</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1141,10 +1141,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-19 23:35:15</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44154.9828125</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1220,10 +1218,8 @@
           <t>3724890132</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-19 22:06:39</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44154.92128472222</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1291,10 +1287,8 @@
           <t>3724890132</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-19 21:59:44</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44154.91648148148</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1362,10 +1356,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-19 19:27:41</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44154.81089120371</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1437,10 +1429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-19 18:17:02</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44154.7618287037</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1508,10 +1498,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-19 18:11:33</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44154.75802083333</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1587,10 +1575,8 @@
           <t>3721317311</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-19 18:08:13</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44154.75570601852</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1666,10 +1652,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-19 18:07:01</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44154.75487268518</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1745,10 +1729,8 @@
           <t>3722949857</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-19 17:54:11</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44154.74596064815</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1824,10 +1806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-19 17:38:25</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44154.73501157408</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1887,10 +1867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-19 16:11:19</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44154.67452546296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1958,10 +1936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-19 16:10:18</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44154.67381944445</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2029,10 +2005,8 @@
           <t>3723593009</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-19 15:39:10</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44154.65219907407</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2100,10 +2074,8 @@
           <t>3723573335</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-19 15:30:49</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44154.64640046296</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2167,10 +2139,8 @@
           <t>3723572426</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-19 15:29:46</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44154.6456712963</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2242,10 +2212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-19 15:25:15</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44154.64253472222</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2321,10 +2289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-19 14:08:45</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44154.58940972222</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2392,10 +2358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-19 13:57:47</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44154.58179398148</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2471,10 +2435,8 @@
           <t>3723340207</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-19 13:45:37</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44154.57334490741</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2542,10 +2504,8 @@
           <t>3723335091</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-19 13:44:35</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44154.57262731482</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2613,10 +2573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-19 13:28:29</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44154.56144675926</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2676,10 +2634,8 @@
           <t>3723200938</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-19 13:00:24</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44154.54194444444</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2747,10 +2703,8 @@
           <t>3723125470</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-19 12:38:40</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44154.52685185185</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2814,10 +2768,8 @@
           <t>3723110831</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-19 12:34:50</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44154.52418981482</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2893,10 +2845,8 @@
           <t>3723092577</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-19 12:30:40</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44154.5212962963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2964,10 +2914,8 @@
           <t>3723054092</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-19 12:20:46</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44154.5144212963</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3043,10 +2991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-19 12:02:28</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44154.50171296296</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -3118,10 +3064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-19 12:00:05</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44154.50005787037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3189,10 +3133,8 @@
           <t>3722485046</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-19 11:55:56</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44154.49717592593</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3268,10 +3210,8 @@
           <t>3722949857</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-19 11:48:46</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44154.49219907408</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3339,10 +3279,8 @@
           <t>3722513928</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-19 11:43:22</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44154.48844907407</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3418,10 +3356,8 @@
           <t>3721203242</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-19 11:34:48</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44154.4825</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3493,10 +3429,8 @@
           <t>3721991679</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-19 11:03:16</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44154.46060185185</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3556,10 +3490,8 @@
           <t>3722513928</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:44:29</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44154.44755787037</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3627,10 +3559,8 @@
           <t>3721173324</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:42:03</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44154.44586805555</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3698,10 +3628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:34:30</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44154.440625</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3769,10 +3697,8 @@
           <t>3721991679</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:32:42</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44154.439375</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3840,10 +3766,8 @@
           <t>3722742798</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:22:49</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44154.43251157407</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3911,10 +3835,8 @@
           <t>3722728210</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:16:56</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44154.42842592593</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3978,10 +3900,8 @@
           <t>3722513928</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:55:51</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44154.41378472222</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4049,10 +3969,8 @@
           <t>3722650918</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:40:20</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44154.40300925926</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4120,10 +4038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:39:35</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44154.40248842593</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4195,10 +4111,8 @@
           <t>3722564570</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:59:49</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44154.37487268518</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4270,10 +4184,8 @@
           <t>3722524135</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:35:43</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44154.35813657408</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4337,10 +4249,8 @@
           <t>3722509944</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:28:41</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44154.35325231482</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4408,10 +4318,8 @@
           <t>3722513928</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:27:37</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44154.35251157408</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4479,10 +4387,8 @@
           <t>3722515795</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:25:59</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44154.35137731482</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4554,10 +4460,8 @@
           <t>3722512622</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:25:17</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44154.35089120371</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4629,10 +4533,8 @@
           <t>3722507871</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:25:05</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44154.35075231481</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4700,10 +4602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:14:01</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44154.34306712963</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4771,10 +4671,8 @@
           <t>3722495129</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:11:31</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44154.34133101852</v>
       </c>
       <c r="I60" t="n">
         <v>3</v>
@@ -4838,10 +4736,8 @@
           <t>3722485046</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:04:28</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44154.33643518519</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4909,10 +4805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:03:18</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44154.335625</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4985,10 +4879,8 @@
           <t>3721317311</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:01:55</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44154.33466435185</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5064,10 +4956,8 @@
           <t>3721072168</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:01:24</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44154.33430555555</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5131,10 +5021,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:56:48</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44154.33111111111</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5210,10 +5098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:27:36</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44154.31083333334</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5289,10 +5175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:20:21</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44154.30579861111</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5356,10 +5240,8 @@
           <t>3722407802</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:08:15</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44154.29739583333</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5435,10 +5317,8 @@
           <t>3721203242</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:08:08</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44154.29731481482</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5502,10 +5382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:04:15</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44154.29461805556</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5581,10 +5459,8 @@
           <t>3722396876</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-19 06:48:05</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44154.2833912037</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5648,10 +5524,8 @@
           <t>3722376355</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-19 06:22:44</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44154.26578703704</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5715,10 +5589,8 @@
           <t>3722370612</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-19 06:16:31</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44154.2614699074</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5790,10 +5662,8 @@
           <t>3722345831</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:03:39</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44154.21086805555</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5861,10 +5731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-19 04:17:45</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44154.17899305555</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5932,10 +5800,8 @@
           <t>3722314105</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-19 04:09:04</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44154.17296296296</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6000,10 +5866,8 @@
           <t>3722314033</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-19 04:08:35</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44154.17262731482</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6068,10 +5932,8 @@
           <t>3721173324</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-19 03:59:57</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44154.16663194444</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6135,10 +5997,8 @@
           <t>3722312641</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-19 03:59:03</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44154.16600694445</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6202,10 +6062,8 @@
           <t>3722282152</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-19 03:03:59</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44154.1277662037</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6281,10 +6139,8 @@
           <t>3722291243</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-19 03:03:13</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44154.12723379629</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6360,10 +6216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-19 03:02:22</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44154.12664351852</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6431,10 +6285,8 @@
           <t>3722280793</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-19 02:58:39</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44154.1240625</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6506,10 +6358,8 @@
           <t>3722276961</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-19 02:47:42</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44154.11645833333</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6581,10 +6431,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-19 02:46:49</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44154.11584490741</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6656,10 +6504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-19 02:45:34</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44154.11497685185</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6731,10 +6577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-19 02:09:19</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44154.08980324074</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6808,10 +6652,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:24:47</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44154.05887731481</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6883,10 +6725,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:24:08</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44154.05842592593</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6958,10 +6798,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:23:10</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44154.05775462963</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7045,10 +6883,8 @@
           <t>3722158837</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:18:57</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44154.05482638889</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7120,10 +6956,8 @@
           <t>3721173324</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:14:24</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44154.05166666667</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7200,10 +7034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:12:12</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44154.05013888889</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7267,10 +7099,8 @@
           <t>3722138295</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:07:10</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44154.04664351852</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7346,10 +7176,8 @@
           <t>3721079964</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:05:38</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44154.04557870371</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7453,10 +7281,8 @@
           <t>3722131396</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:04:30</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44154.04479166667</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7535,10 +7361,8 @@
           <t>3722131343</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:04:25</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44154.0447337963</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7611,10 +7435,8 @@
           <t>3722128905</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:04:18</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44154.04465277777</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7693,10 +7515,8 @@
           <t>3722131194</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:04:12</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44154.04458333334</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7794,10 +7614,8 @@
           <t>3722135997</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:04:07</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44154.04452546296</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7880,10 +7698,8 @@
           <t>3722131075</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:04:02</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44154.04446759259</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7987,10 +7803,8 @@
           <t>3722135460</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:03:26</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44154.04405092593</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8069,10 +7883,8 @@
           <t>3722135387</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:03:20</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44154.04398148148</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8145,10 +7957,8 @@
           <t>3722135295</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:03:13</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44154.04390046297</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -8227,10 +8037,8 @@
           <t>3722127824</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:02:50</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44154.04363425926</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8328,10 +8136,8 @@
           <t>3722124884</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:02:43</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44154.04355324074</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8414,10 +8220,8 @@
           <t>3722130015</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:02:36</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44154.04347222222</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8489,10 +8293,8 @@
           <t>3722125871</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:00:14</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44154.0418287037</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8560,10 +8362,8 @@
           <t>3721107506</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:50:00</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44154.03472222222</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8631,10 +8431,8 @@
           <t>3722089402</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:48:54</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44154.03395833333</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8706,10 +8504,8 @@
           <t>3721107506</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:47:12</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44154.03277777778</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8777,10 +8573,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:41:36</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44154.02888888889</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8856,10 +8650,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:39:35</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44154.02748842593</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8935,10 +8727,8 @@
           <t>3722058536</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:36:50</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44154.0255787037</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -9006,10 +8796,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:36:18</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44154.02520833333</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -9073,10 +8861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:30:42</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44154.02131944444</v>
       </c>
       <c r="I116" t="n">
         <v>12</v>
@@ -9144,10 +8930,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:30:17</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44154.02103009259</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9228,10 +9012,8 @@
           <t>3722034768</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:28:35</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44154.01984953704</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9303,10 +9085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:22:25</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44154.01556712963</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9378,10 +9158,8 @@
           <t>3722020166</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:21:54</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44154.01520833333</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9449,10 +9227,8 @@
           <t>3722006673</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:18:45</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44154.01302083334</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9528,10 +9304,8 @@
           <t>3722000175</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:14:56</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44154.01037037037</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9599,10 +9373,8 @@
           <t>3721991679</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:14:21</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44154.00996527778</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9666,10 +9438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:11:36</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44154.00805555555</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9741,10 +9511,8 @@
           <t>3721079964</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:09:51</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44154.00684027778</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9816,10 +9584,8 @@
           <t>3721103896</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:03:42</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44154.00256944444</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9895,10 +9661,8 @@
           <t>3721103896</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:01:50</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44154.00127314815</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9974,10 +9738,8 @@
           <t>3721103896</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:01:43</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44154.00119212963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -10041,10 +9803,8 @@
           <t>3721103896</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:00:44</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44154.00050925926</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10108,10 +9868,8 @@
           <t>3721103896</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:00:39</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44154.00045138889</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10188,10 +9946,8 @@
           <t>3721103896</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:58:43</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44153.9991087963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10267,10 +10023,8 @@
           <t>3721930748</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:57:23</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44153.99818287037</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10342,10 +10096,8 @@
           <t>3721103896</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:56:10</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44153.99733796297</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10409,10 +10161,8 @@
           <t>3721902089</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:53:48</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44153.99569444444</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10476,10 +10226,8 @@
           <t>3721902089</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:50:38</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44153.99349537037</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10555,10 +10303,8 @@
           <t>3721898766</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:49:03</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44153.99239583333</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10637,10 +10383,8 @@
           <t>3721871819</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:42:55</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44153.98813657407</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10716,10 +10460,8 @@
           <t>3721836837</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:32:14</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44153.9807175926</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10783,10 +10525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:28:48</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44153.97833333333</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10854,10 +10594,8 @@
           <t>3721592027</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:22:36</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44153.97402777777</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10925,10 +10663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:22:26</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44153.97391203704</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -11000,10 +10736,8 @@
           <t>3721783152</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:21:18</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44153.973125</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -11067,10 +10801,8 @@
           <t>3721173324</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:19:58</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44153.97219907407</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11134,10 +10866,8 @@
           <t>3721779201</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:19:31</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44153.97188657407</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11201,10 +10931,8 @@
           <t>3721134872</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:15:20</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44153.96898148148</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11272,10 +11000,8 @@
           <t>3721134872</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:14:00</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44153.96805555555</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11343,10 +11069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:12:37</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44153.96709490741</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11422,10 +11146,8 @@
           <t>3721134872</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:06:58</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44153.96317129629</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11489,10 +11211,8 @@
           <t>3721717885</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:05:08</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44153.96189814815</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11568,10 +11288,8 @@
           <t>3721715486</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:03:27</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44153.96072916667</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11631,10 +11349,8 @@
           <t>3721198229</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:00:08</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44153.95842592593</v>
       </c>
       <c r="I151" t="n">
         <v>6</v>
@@ -11702,10 +11418,8 @@
           <t>3721198229</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:55:52</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44153.95546296296</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11783,10 +11497,8 @@
           <t>3721672160</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:54:26</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44153.95446759259</v>
       </c>
       <c r="I153" t="n">
         <v>2</v>
@@ -11850,10 +11562,8 @@
           <t>3721662409</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:51:59</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44153.95276620371</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11925,10 +11635,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:51:11</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44153.95221064815</v>
       </c>
       <c r="I155" t="n">
         <v>2</v>
@@ -12004,10 +11712,8 @@
           <t>3721173324</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:51:04</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44153.95212962963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -12067,10 +11773,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:50:59</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44153.95207175926</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12147,10 +11851,8 @@
           <t>3721657078</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:50:59</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44153.95207175926</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12222,10 +11924,8 @@
           <t>3721198229</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:50:58</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44153.95206018518</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12293,10 +11993,8 @@
           <t>3721653534</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:50:03</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44153.95142361111</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12364,10 +12062,8 @@
           <t>3721198229</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:49:38</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44153.95113425926</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12444,10 +12140,8 @@
           <t>3721641797</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:47:19</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44153.94952546297</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12518,10 +12212,8 @@
           <t>3721134872</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:47:06</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44153.949375</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12589,10 +12281,8 @@
           <t>3721635475</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:44:13</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44153.94737268519</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12665,10 +12355,8 @@
           <t>3721136709</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:43:56</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44153.94717592592</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12736,10 +12424,8 @@
           <t>3721624936</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:43:49</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44153.94709490741</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12811,10 +12497,8 @@
           <t>3721619267</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:42:23</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44153.94609953704</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12882,10 +12566,8 @@
           <t>3721617932</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:41:27</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44153.94545138889</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12961,10 +12643,8 @@
           <t>3721173324</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:40:06</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44153.94451388889</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -13036,10 +12716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:37:36</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44153.94277777777</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13111,10 +12789,8 @@
           <t>3721083121</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:35:38</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44153.94141203703</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13186,10 +12862,8 @@
           <t>3721592027</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:34:28</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44153.94060185185</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13253,10 +12927,8 @@
           <t>3721198229</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:33:40</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44153.94004629629</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13325,10 +12997,8 @@
           <t>3721580097</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:32:09</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44153.93899305556</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13401,10 +13071,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:29:45</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44153.93732638889</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -13480,10 +13148,8 @@
           <t>3721575044</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:29:29</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44153.93714120371</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13557,10 +13223,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:27:51</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44153.93600694444</v>
       </c>
       <c r="I177" t="n">
         <v>3</v>
@@ -13636,10 +13300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:27:32</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44153.93578703704</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13699,10 +13361,8 @@
           <t>3721540644</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:22:39</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44153.93239583333</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13770,10 +13430,8 @@
           <t>3721531995</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:20:14</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44153.93071759259</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13851,10 +13509,8 @@
           <t>3721525790</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:19:08</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44153.9299537037</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13932,10 +13588,8 @@
           <t>3721509186</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:16:57</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44153.9284375</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -14011,10 +13665,8 @@
           <t>3721515107</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:15:30</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44153.92743055556</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -14082,10 +13734,8 @@
           <t>3721504450</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:15:04</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44153.92712962963</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -14153,10 +13803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:13:07</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44153.92577546297</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14220,10 +13868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:09:47</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44153.92346064815</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14299,10 +13945,8 @@
           <t>3721486447</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:09:26</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44153.92321759259</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14366,10 +14010,8 @@
           <t>3721227034</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:06:48</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44153.92138888889</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14441,10 +14083,8 @@
           <t>3721471758</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:06:01</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44153.92084490741</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14516,10 +14156,8 @@
           <t>3721173324</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:03:09</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44153.91885416667</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14595,10 +14233,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:03:07</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44153.91883101852</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14666,10 +14302,8 @@
           <t>3721453582</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:02:49</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44153.91862268518</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14733,10 +14367,8 @@
           <t>3721457308</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:02:48</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44153.91861111111</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14812,10 +14444,8 @@
           <t>3721452152</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:01:46</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44153.91789351852</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14879,10 +14509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:01:18</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44153.91756944444</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14958,10 +14586,8 @@
           <t>3721133729</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:00:45</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44153.9171875</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -15033,10 +14659,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:00:33</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44153.91704861111</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -15112,10 +14736,8 @@
           <t>3721441515</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:58:41</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44153.91575231482</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15179,10 +14801,8 @@
           <t>3721136528</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:55:28</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44153.91351851852</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15258,10 +14878,8 @@
           <t>3721173324</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:55:22</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44153.91344907408</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15321,10 +14939,8 @@
           <t>3721425276</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:54:02</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44153.91252314814</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15400,10 +15016,8 @@
           <t>3721133729</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:50:47</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44153.9102662037</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15467,10 +15081,8 @@
           <t>3721085606</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:50:21</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44153.90996527778</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15546,10 +15158,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:49:42</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44153.90951388889</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15625,10 +15235,8 @@
           <t>3721173324</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:48:21</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44153.90857638889</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15700,10 +15308,8 @@
           <t>3721133729</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:47:49</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44153.90820601852</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15779,10 +15385,8 @@
           <t>3721386222</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:44:23</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44153.90582175926</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15850,10 +15454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:43:23</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44153.90512731481</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15930,10 +15532,8 @@
           <t>3721381144</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:43:20</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44153.90509259259</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -16001,10 +15601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:42:36</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44153.90458333334</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -16080,10 +15678,8 @@
           <t>3721368434</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:41:20</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44153.90370370371</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -16147,10 +15743,8 @@
           <t>3721227034</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:40:57</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44153.9034375</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16228,10 +15822,8 @@
           <t>3721375236</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:40:55</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44153.90341435185</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16299,10 +15891,8 @@
           <t>3721371382</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:40:38</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44153.90321759259</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16366,10 +15956,8 @@
           <t>3721136528</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:39:32</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44153.9024537037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16433,10 +16021,8 @@
           <t>3721365601</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:39:12</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44153.90222222222</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16504,10 +16090,8 @@
           <t>3721365219</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:38:56</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44153.90203703703</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16575,10 +16159,8 @@
           <t>3721103896</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:38:30</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44153.90173611111</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16650,10 +16232,8 @@
           <t>3721262100</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:38:01</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44153.90140046296</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16731,10 +16311,8 @@
           <t>3721133729</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:36:28</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44153.90032407407</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16798,10 +16376,8 @@
           <t>3721339138</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:34:23</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44153.89887731482</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16871,10 +16447,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:34:18</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44153.89881944445</v>
       </c>
       <c r="I222" t="n">
         <v>14</v>
@@ -16950,10 +16524,8 @@
           <t>3721341891</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:33:11</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44153.89804398148</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -17025,10 +16597,8 @@
           <t>3721334019</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:32:19</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44153.89744212963</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -17100,10 +16670,8 @@
           <t>3721335816</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:32:00</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44153.89722222222</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -17167,10 +16735,8 @@
           <t>3721335122</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:31:27</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44153.89684027778</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17246,10 +16812,8 @@
           <t>3721330754</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:30:56</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44153.89648148148</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17317,10 +16881,8 @@
           <t>3721328549</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:30:33</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44153.89621527777</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17388,10 +16950,8 @@
           <t>3721323403</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:30:11</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44153.89596064815</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17451,10 +17011,8 @@
           <t>3721330754</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:29:52</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44153.89574074074</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17522,10 +17080,8 @@
           <t>3721319973</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:29:16</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44153.89532407407</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17593,10 +17149,8 @@
           <t>3721325134</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:27:53</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44153.89436342593</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17672,10 +17226,8 @@
           <t>3721309922</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:27:32</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44153.89412037037</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17743,10 +17295,8 @@
           <t>3721317311</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:27:07</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44153.89383101852</v>
       </c>
       <c r="I234" t="n">
         <v>7</v>
@@ -17822,10 +17372,8 @@
           <t>3721133729</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:26:58</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44153.89372685185</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17897,10 +17445,8 @@
           <t>3721316532</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:26:30</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44153.89340277778</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17976,10 +17522,8 @@
           <t>3721308277</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:26:17</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44153.89325231482</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -18055,10 +17599,8 @@
           <t>3721307059</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:25:21</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44153.89260416666</v>
       </c>
       <c r="I238" t="n">
         <v>31</v>
@@ -18134,10 +17676,8 @@
           <t>3721262956</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:24:57</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44153.89232638889</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -18201,10 +17741,8 @@
           <t>3721310492</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:24:12</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44153.89180555556</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18280,10 +17818,8 @@
           <t>3721301259</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:22:17</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44153.89047453704</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18351,10 +17887,8 @@
           <t>3721293183</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:22:16</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44153.89046296296</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18430,10 +17964,8 @@
           <t>3721297848</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:22:05</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44153.89033564815</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18501,10 +18033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:21:42</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44153.89006944445</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18576,10 +18106,8 @@
           <t>3721291785</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:21:10</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44153.88969907408</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18643,10 +18171,8 @@
           <t>3721284612</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:19:35</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44153.88859953704</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18710,10 +18236,8 @@
           <t>3721278414</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:18:24</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44153.88777777777</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18785,10 +18309,8 @@
           <t>3721278250</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:18:17</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44153.88769675926</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18865,10 +18387,8 @@
           <t>3721273794</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:16:19</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44153.88633101852</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18940,10 +18460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:16:00</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44153.88611111111</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -19020,10 +18538,8 @@
           <t>3721262956</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:14:01</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44153.88473379629</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -19087,10 +18603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:13:42</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44153.88451388889</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19163,10 +18677,8 @@
           <t>3721262100</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:13:21</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44153.88427083333</v>
       </c>
       <c r="I253" t="n">
         <v>9</v>
@@ -19234,10 +18746,8 @@
           <t>3721259568</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:12:53</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44153.88394675926</v>
       </c>
       <c r="I254" t="n">
         <v>8</v>
@@ -19305,10 +18815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:12:39</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44153.88378472222</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19368,10 +18876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:11:37</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44153.88306712963</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19431,10 +18937,8 @@
           <t>3721149580</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:11:33</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44153.88302083333</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19506,10 +19010,8 @@
           <t>3721249214</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:11:01</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44153.88265046296</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19573,10 +19075,8 @@
           <t>3721248883</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:10:45</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44153.88246527778</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -19648,10 +19148,8 @@
           <t>3721253233</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:10:39</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44153.88239583333</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19719,10 +19217,8 @@
           <t>3721252704</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:10:13</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44153.88209490741</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19786,10 +19282,8 @@
           <t>3721198229</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:09:30</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44153.88159722222</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19853,10 +19347,8 @@
           <t>3721245808</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:08:16</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44153.88074074074</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19924,10 +19416,8 @@
           <t>3721234064</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:06:53</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44153.87978009259</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19999,10 +19489,8 @@
           <t>3721233344</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:06:18</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44153.879375</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -20074,10 +19562,8 @@
           <t>3721241101</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:06:00</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44153.87916666667</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20141,10 +19627,8 @@
           <t>3721232917</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:05:58</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44153.87914351852</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20220,10 +19704,8 @@
           <t>3721103896</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:05:43</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44153.8789699074</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20287,10 +19769,8 @@
           <t>3721198229</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:04:52</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44153.87837962963</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20358,10 +19838,8 @@
           <t>3721227034</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:04:40</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44153.87824074074</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20429,10 +19907,8 @@
           <t>3721103896</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:04:19</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44153.87799768519</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20492,10 +19968,8 @@
           <t>3721219490</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:03:10</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44153.87719907407</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20559,10 +20033,8 @@
           <t>3721227034</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:02:41</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44153.87686342592</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20634,10 +20106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:01:21</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44153.8759375</v>
       </c>
       <c r="I274" t="n">
         <v>6</v>
@@ -20701,10 +20171,8 @@
           <t>3721216252</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:00:34</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44153.87539351852</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20776,10 +20244,8 @@
           <t>3721156502</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:00:31</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44153.87535879629</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20843,10 +20309,8 @@
           <t>3721198229</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:59:44</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44153.87481481482</v>
       </c>
       <c r="I277" t="n">
         <v>2</v>
@@ -20922,10 +20386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:59:26</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44153.87460648148</v>
       </c>
       <c r="I278" t="n">
         <v>12</v>
@@ -20993,10 +20455,8 @@
           <t>3721156502</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:59:13</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44153.87445601852</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21060,10 +20520,8 @@
           <t>3721212697</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:59:13</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44153.87445601852</v>
       </c>
       <c r="I280" t="n">
         <v>3</v>
@@ -21139,10 +20597,8 @@
           <t>3721208489</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:59:01</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44153.87431712963</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21210,10 +20666,8 @@
           <t>3721091383</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:58:52</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44153.87421296296</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21277,10 +20731,8 @@
           <t>3721134872</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:58:39</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44153.8740625</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21348,10 +20800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:58:31</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44153.87396990741</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21419,10 +20869,8 @@
           <t>3721203242</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:58:09</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44153.87371527778</v>
       </c>
       <c r="I285" t="n">
         <v>9</v>
@@ -21486,10 +20934,8 @@
           <t>3721091383</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:57:34</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44153.87331018518</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21557,10 +21003,8 @@
           <t>3721210555</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:57:29</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44153.87325231481</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21636,10 +21080,8 @@
           <t>3721206322</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:57:19</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44153.87313657408</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21703,10 +21145,8 @@
           <t>3721210317</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:57:16</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44153.87310185185</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21774,10 +21214,8 @@
           <t>3721202096</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:57:12</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44153.87305555555</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21853,10 +21291,8 @@
           <t>3721091383</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:56:30</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44153.87256944444</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21924,10 +21360,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:56:21</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44153.87246527777</v>
       </c>
       <c r="I292" t="n">
         <v>6</v>
@@ -22003,10 +21437,8 @@
           <t>3721198909</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:56:09</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44153.87232638889</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22074,10 +21506,8 @@
           <t>3721194512</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:55:57</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44153.8721875</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22149,10 +21579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:55:47</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44153.87207175926</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22216,10 +21644,8 @@
           <t>3721198229</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:55:37</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44153.87195601852</v>
       </c>
       <c r="I296" t="n">
         <v>51</v>
@@ -22287,10 +21713,8 @@
           <t>3721193851</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:55:26</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44153.8718287037</v>
       </c>
       <c r="I297" t="n">
         <v>8</v>
@@ -22354,10 +21778,8 @@
           <t>3721173324</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:54:38</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44153.87127314815</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22429,10 +21851,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:54:28</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44153.8711574074</v>
       </c>
       <c r="I299" t="n">
         <v>3</v>
@@ -22508,10 +21928,8 @@
           <t>3721188661</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:54:24</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44153.87111111111</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22579,10 +21997,8 @@
           <t>3721184700</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:52:46</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44153.86997685185</v>
       </c>
       <c r="I301" t="n">
         <v>2</v>
@@ -22658,10 +22074,8 @@
           <t>3721173324</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:52:35</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44153.86984953703</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22721,10 +22135,8 @@
           <t>3721136528</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:52:31</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44153.86980324074</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22796,10 +22208,8 @@
           <t>3721108833</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:51:49</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44153.86931712963</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22867,10 +22277,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:51:35</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44153.86915509259</v>
       </c>
       <c r="I305" t="n">
         <v>2</v>
@@ -22942,10 +22350,8 @@
           <t>3721156502</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:51:24</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44153.86902777778</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23013,10 +22419,8 @@
           <t>3721173324</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:50:03</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44153.86809027778</v>
       </c>
       <c r="I307" t="n">
         <v>3</v>
@@ -23088,10 +22492,8 @@
           <t>3721156502</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:48:46</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44153.86719907408</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23167,10 +22569,8 @@
           <t>3721100912</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:48:43</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44153.86716435185</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23246,10 +22646,8 @@
           <t>3721169416</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:48:37</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44153.86709490741</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23325,10 +22723,8 @@
           <t>3721079964</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:48:33</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44153.86704861111</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23396,10 +22792,8 @@
           <t>3721134872</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:48:31</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44153.86702546296</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23475,10 +22869,8 @@
           <t>3721156502</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:47:59</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44153.86665509259</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23542,10 +22934,8 @@
           <t>3721156502</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:47:36</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44153.86638888889</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23609,10 +22999,8 @@
           <t>3721163569</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:47:25</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44153.86626157408</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23680,10 +23068,8 @@
           <t>3721091383</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:47:19</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44153.86619212963</v>
       </c>
       <c r="I316" t="n">
         <v>6</v>
@@ -23747,10 +23133,8 @@
           <t>3721167158</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:46:45</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44153.86579861111</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23826,10 +23210,8 @@
           <t>3721156502</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:46:44</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44153.86578703704</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23893,10 +23275,8 @@
           <t>3721158880</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:46:29</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44153.86561342593</v>
       </c>
       <c r="I319" t="n">
         <v>5</v>
@@ -23969,10 +23349,8 @@
           <t>3721129857</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:45:16</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44153.86476851852</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -24048,10 +23426,8 @@
           <t>3721165245</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:45:08</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44153.86467592593</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24115,10 +23491,8 @@
           <t>3721156502</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:44:27</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44153.86420138889</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24186,10 +23560,8 @@
           <t>3721149580</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:44:16</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44153.86407407407</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24261,10 +23633,8 @@
           <t>3721091383</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:44:06</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44153.86395833334</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24340,10 +23710,8 @@
           <t>3721152098</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:42:30</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44153.86284722222</v>
       </c>
       <c r="I325" t="n">
         <v>2</v>
@@ -24414,10 +23782,8 @@
           <t>3721151093</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:41:40</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44153.86226851852</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24485,10 +23851,8 @@
           <t>3721129285</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:41:36</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44153.86222222223</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24638,10 +24002,8 @@
           <t>3721146199</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:41:29</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44153.8621412037</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24709,10 +24071,8 @@
           <t>3721100912</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:41:23</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44153.86207175926</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24788,10 +24148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:41:21</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44153.86204861111</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24855,10 +24213,8 @@
           <t>3721129285</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:41:16</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44153.86199074074</v>
       </c>
       <c r="I331" t="n">
         <v>3</v>
@@ -24934,10 +24290,8 @@
           <t>3721150352</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:41:04</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44153.86185185185</v>
       </c>
       <c r="I332" t="n">
         <v>2</v>
@@ -25061,10 +24415,8 @@
           <t>3721150265</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:41:00</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44153.86180555556</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -25132,10 +24484,8 @@
           <t>3721134872</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:40:21</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44153.86135416666</v>
       </c>
       <c r="I334" t="n">
         <v>2</v>
@@ -25199,10 +24549,8 @@
           <t>3721139339</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:40:10</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44153.86122685186</v>
       </c>
       <c r="I335" t="n">
         <v>9</v>
@@ -25274,10 +24622,8 @@
           <t>3721100912</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:40:10</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44153.86122685186</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25353,10 +24699,8 @@
           <t>3721136528</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:39:51</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44153.86100694445</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25424,10 +24768,8 @@
           <t>3721136528</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:39:41</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44153.8608912037</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25503,10 +24845,8 @@
           <t>3721133729</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:39:26</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44153.86071759259</v>
       </c>
       <c r="I339" t="n">
         <v>4</v>
@@ -25582,10 +24922,8 @@
           <t>3721100912</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:39:14</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44153.8605787037</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25661,10 +24999,8 @@
           <t>3721133434</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:39:12</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44153.86055555556</v>
       </c>
       <c r="I341" t="n">
         <v>20</v>
@@ -25740,10 +25076,8 @@
           <t>3721129285</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:39:07</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44153.86049768519</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25835,10 +25169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:38:47</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44153.8602662037</v>
       </c>
       <c r="I343" t="n">
         <v>48</v>
@@ -25902,10 +25234,8 @@
           <t>3721129857</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:38:47</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44153.8602662037</v>
       </c>
       <c r="I344" t="n">
         <v>3</v>
@@ -25977,10 +25307,8 @@
           <t>3721136528</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:38:41</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44153.86019675926</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -26044,10 +25372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:38:18</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44153.85993055555</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -26111,10 +25437,8 @@
           <t>3721129285</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:38:18</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44153.85993055555</v>
       </c>
       <c r="I347" t="n">
         <v>6</v>
@@ -26190,10 +25514,8 @@
           <t>3721136999</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:38:15</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44153.85989583333</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26270,10 +25592,8 @@
           <t>3721091383</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:38:14</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44153.85988425926</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26341,10 +25661,8 @@
           <t>3721136709</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:38:00</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44153.85972222222</v>
       </c>
       <c r="I350" t="n">
         <v>2</v>
@@ -26408,10 +25726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:37:57</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44153.8596875</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26479,10 +25795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:37:54</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44153.85965277778</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26546,10 +25860,8 @@
           <t>3721136528</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:37:50</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44153.85960648148</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26625,10 +25937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:37:10</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44153.85914351852</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26696,10 +26006,8 @@
           <t>3721135531</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:36:58</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44153.85900462963</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26767,10 +26075,8 @@
           <t>3721100912</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:36:12</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44153.85847222222</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26838,10 +26144,8 @@
           <t>3721119218</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:35:45</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44153.85815972222</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26913,10 +26217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:35:42</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44153.858125</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26988,10 +26290,8 @@
           <t>3721125902</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:35:24</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44153.85791666667</v>
       </c>
       <c r="I359" t="n">
         <v>3</v>
@@ -27063,10 +26363,8 @@
           <t>3721117429</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:34:18</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44153.85715277777</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -27130,10 +26428,8 @@
           <t>3721116956</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:33:55</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44153.85688657407</v>
       </c>
       <c r="I361" t="n">
         <v>17</v>
@@ -27153,9 +26449,10 @@
           <t>女</t>
         </is>
       </c>
-      <c r="M361">
-        <f>￣ω￣=</f>
-        <v/>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>=￣ω￣=</t>
+        </is>
       </c>
       <c r="N361" t="n">
         <v>5</v>
@@ -27204,10 +26501,8 @@
           <t>3721121513</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:33:35</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44153.85665509259</v>
       </c>
       <c r="I362" t="n">
         <v>3</v>
@@ -27275,10 +26570,8 @@
           <t>3721116369</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:33:26</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44153.85655092593</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27350,10 +26643,8 @@
           <t>3721116086</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:33:13</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44153.85640046297</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27417,10 +26708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:32:22</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44153.85581018519</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27496,10 +26785,8 @@
           <t>3721112110</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:32:14</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44153.8557175926</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27564,10 +26851,8 @@
           <t>3721079964</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:32:01</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44153.85556712963</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27635,10 +26920,8 @@
           <t>3721103896</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:31:24</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44153.85513888889</v>
       </c>
       <c r="I368" t="n">
         <v>4</v>
@@ -27702,10 +26985,8 @@
           <t>3721107506</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:31:22</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44153.85511574074</v>
       </c>
       <c r="I369" t="n">
         <v>6</v>
@@ -27773,10 +27054,8 @@
           <t>3721108833</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:31:20</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44153.8550925926</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27844,10 +27123,8 @@
           <t>3721084062</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:30:54</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44153.85479166666</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27911,10 +27188,8 @@
           <t>3721108042</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:30:43</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44153.85466435185</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27991,10 +27266,8 @@
           <t>3721107506</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:30:15</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44153.85434027778</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -28062,10 +27335,8 @@
           <t>3721099639</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:30:05</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44153.85422453703</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -28137,10 +27408,8 @@
           <t>3721106895</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:29:45</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44153.85399305556</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -28212,10 +27481,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:29:22</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44153.85372685185</v>
       </c>
       <c r="I376" t="n">
         <v>2</v>
@@ -28279,10 +27546,8 @@
           <t>3721106301</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:29:15</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44153.85364583333</v>
       </c>
       <c r="I377" t="n">
         <v>11</v>
@@ -28346,10 +27611,8 @@
           <t>3721101262</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:29:10</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44153.85358796296</v>
       </c>
       <c r="I378" t="n">
         <v>2</v>
@@ -28425,10 +27688,8 @@
           <t>3721098325</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:28:55</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44153.85341435186</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28492,10 +27753,8 @@
           <t>3721100912</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:28:52</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44153.85337962963</v>
       </c>
       <c r="I380" t="n">
         <v>6</v>
@@ -28567,10 +27826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:28:12</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44153.85291666666</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28638,10 +27895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:28:04</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44153.85282407407</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28709,10 +27964,8 @@
           <t>3721094598</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:27:53</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44153.85269675926</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28780,10 +28033,8 @@
           <t>3721094252</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:27:36</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44153.8525</v>
       </c>
       <c r="I384" t="n">
         <v>5</v>
@@ -28851,10 +28102,8 @@
           <t>3721089391</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:27:34</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44153.85247685185</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28922,10 +28171,8 @@
           <t>3721083121</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:27:16</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44153.85226851852</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
@@ -28993,10 +28240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:26:46</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44153.85192129629</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -29068,10 +28313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:26:45</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44153.85190972222</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -29139,10 +28382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:26:40</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44153.85185185185</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -29210,10 +28451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:26:17</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44153.85158564815</v>
       </c>
       <c r="I390" t="n">
         <v>25</v>
@@ -29277,10 +28516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:26:12</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44153.85152777778</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29356,10 +28593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:26:10</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44153.85150462963</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29427,10 +28662,8 @@
           <t>3721092319</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:26:03</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44153.85142361111</v>
       </c>
       <c r="I393" t="n">
         <v>23</v>
@@ -29498,10 +28731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:26:02</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44153.85141203704</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29569,10 +28800,8 @@
           <t>3721084062</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:25:17</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44153.85089120371</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29646,10 +28875,8 @@
           <t>3721091383</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:25:17</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44153.85089120371</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29725,10 +28952,8 @@
           <t>3721083224</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:24:33</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44153.85038194444</v>
       </c>
       <c r="I397" t="n">
         <v>27</v>
@@ -29800,10 +29025,8 @@
           <t>3721090479</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:24:32</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44153.85037037037</v>
       </c>
       <c r="I398" t="n">
         <v>5</v>
@@ -29871,10 +29094,8 @@
           <t>3721083121</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:24:28</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44153.85032407408</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29948,10 +29169,8 @@
           <t>3721085606</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:24:23</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44153.85026620371</v>
       </c>
       <c r="I400" t="n">
         <v>2</v>
@@ -30015,10 +29234,8 @@
           <t>3721082942</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:24:19</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44153.85021990741</v>
       </c>
       <c r="I401" t="n">
         <v>18</v>
@@ -30086,10 +29303,8 @@
           <t>3721079964</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:24:07</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44153.85008101852</v>
       </c>
       <c r="I402" t="n">
         <v>9</v>
@@ -30150,10 +29365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:24:03</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44153.85003472222</v>
       </c>
       <c r="I403" t="n">
         <v>7</v>
@@ -30217,10 +29430,8 @@
           <t>3721082321</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:47</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44153.84984953704</v>
       </c>
       <c r="I404" t="n">
         <v>3</v>
@@ -30292,10 +29503,8 @@
           <t>3721079441</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:41</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44153.84978009259</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -30367,10 +29576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:39</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44153.84975694444</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30442,10 +29649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:26</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44153.84960648148</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30519,10 +29724,8 @@
           <t>3721079036</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:22</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44153.84956018518</v>
       </c>
       <c r="I408" t="n">
         <v>21</v>
@@ -30590,10 +29793,8 @@
           <t>3721081848</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:21</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44153.84954861111</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30661,10 +29862,8 @@
           <t>3721078646</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:05</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44153.84936342593</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30740,10 +29939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:03</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44153.84934027777</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30818,10 +30015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:22:50</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44153.84918981481</v>
       </c>
       <c r="I412" t="n">
         <v>75</v>
@@ -30885,10 +30080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:22:44</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44153.84912037037</v>
       </c>
       <c r="I413" t="n">
         <v>4</v>
@@ -30968,10 +30161,8 @@
           <t>3721078145</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:22:41</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44153.84908564815</v>
       </c>
       <c r="I414" t="n">
         <v>7</v>
@@ -31047,10 +30238,8 @@
           <t>3721080811</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:22:27</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44153.84892361111</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -31129,10 +30318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:22:22</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44153.84886574074</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31200,10 +30387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:22:20</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44153.84884259259</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31279,10 +30464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:22:16</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44153.8487962963</v>
       </c>
       <c r="I418" t="n">
         <v>229</v>
@@ -31365,10 +30548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:22:08</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44153.8487037037</v>
       </c>
       <c r="I419" t="n">
         <v>244</v>
@@ -31436,10 +30617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:44</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44153.84842592593</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31511,10 +30690,8 @@
           <t>3721069939</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:44</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44153.84842592593</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31586,10 +30763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:29</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44153.84825231481</v>
       </c>
       <c r="I422" t="n">
         <v>181</v>
@@ -31657,10 +30832,8 @@
           <t>3721072168</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:29</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44153.84825231481</v>
       </c>
       <c r="I423" t="n">
         <v>3</v>
@@ -31732,10 +30905,8 @@
           <t>3721076700</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:28</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44153.84824074074</v>
       </c>
       <c r="I424" t="n">
         <v>2</v>
@@ -31807,10 +30978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:05</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44153.84797453704</v>
       </c>
       <c r="I425" t="n">
         <v>11</v>
@@ -31882,10 +31051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:02</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44153.84793981481</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31957,10 +31124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:49</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44153.84778935185</v>
       </c>
       <c r="I427" t="n">
         <v>41</v>
@@ -32028,10 +31193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:43</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44153.8477199074</v>
       </c>
       <c r="I428" t="n">
         <v>6</v>
@@ -32099,10 +31262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:37</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44153.84765046297</v>
       </c>
       <c r="I429" t="n">
         <v>40</v>
@@ -32178,10 +31339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:37</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44153.84765046297</v>
       </c>
       <c r="I430" t="n">
         <v>107</v>
@@ -32253,10 +31412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:37</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44153.84765046297</v>
       </c>
       <c r="I431" t="n">
         <v>15</v>
@@ -32332,10 +31489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:21</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44153.84746527778</v>
       </c>
       <c r="I432" t="n">
         <v>6</v>
@@ -32403,10 +31558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:20</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44153.8474537037</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -32478,10 +31631,8 @@
           <t>3721075264</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:19</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44153.84744212963</v>
       </c>
       <c r="I434" t="n">
         <v>3</v>
@@ -32557,10 +31708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:15</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44153.84739583333</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32636,10 +31785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:15</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44153.84739583333</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32715,10 +31862,8 @@
           <t>3721075126</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:13</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44153.84737268519</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32794,10 +31939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:11</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44153.84734953703</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32873,10 +32016,8 @@
           <t>3721064955</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:04</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44153.84726851852</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32952,10 +32093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:01</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44153.8472337963</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -33024,10 +32163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:57</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44153.8471875</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -33099,10 +32236,8 @@
           <t>3721070255</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:56</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44153.84717592593</v>
       </c>
       <c r="I442" t="n">
         <v>2</v>
@@ -33178,10 +32313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:48</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44153.84708333333</v>
       </c>
       <c r="I443" t="n">
         <v>55</v>
@@ -33245,10 +32378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:47</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44153.84707175926</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33312,10 +32443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:43</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44153.84702546296</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33391,10 +32520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:37</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44153.84695601852</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33466,10 +32593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:35</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44153.84693287037</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33545,10 +32670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:21</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44153.84677083333</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33624,10 +32747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:17</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44153.84672453703</v>
       </c>
       <c r="I449" t="n">
         <v>2</v>
@@ -33699,10 +32820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:15</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44153.84670138889</v>
       </c>
       <c r="I450" t="n">
         <v>5</v>
@@ -33778,10 +32897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:14</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44153.84668981482</v>
       </c>
       <c r="I451" t="n">
         <v>40</v>
@@ -33849,10 +32966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:09</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44153.84663194444</v>
       </c>
       <c r="I452" t="n">
         <v>2</v>
@@ -33921,10 +33036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:09</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44153.84663194444</v>
       </c>
       <c r="I453" t="n">
         <v>2</v>
@@ -33996,10 +33109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:05</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44153.84658564815</v>
       </c>
       <c r="I454" t="n">
         <v>797</v>
@@ -34063,10 +33174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:57</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44153.84649305556</v>
       </c>
       <c r="I455" t="n">
         <v>237</v>
@@ -34142,10 +33251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:54</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44153.84645833333</v>
       </c>
       <c r="I456" t="n">
         <v>2</v>
@@ -34217,10 +33324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:54</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44153.84645833333</v>
       </c>
       <c r="I457" t="n">
         <v>2</v>
